--- a/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.91332180764205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13.20561510045499</v>
+        <v>13.20561510045498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3301262898216143</v>
@@ -649,7 +649,7 @@
         <v>0.5532958460141937</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4427394130543059</v>
+        <v>0.4427394130543054</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.837244376398768</v>
+        <v>-1.669895329535816</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.009705821780448</v>
+        <v>1.247712268914851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.734467721613215</v>
+        <v>4.650118944850293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.174651191075801</v>
+        <v>6.160462449455888</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1143122474882687</v>
+        <v>-0.1022497467050312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03319221019163014</v>
+        <v>0.06275869689213483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1873867917979299</v>
+        <v>0.1777292736308902</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1801867097005456</v>
+        <v>0.1823919108264733</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.94704128773372</v>
+        <v>11.33104123423412</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.20616709346497</v>
+        <v>15.85352675798491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.29143357663746</v>
+        <v>19.28171296315103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.8181361137291</v>
+        <v>20.37677494047368</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.035136652815396</v>
+        <v>1.088256677544305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.150649707368216</v>
+        <v>1.173658646544101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.068833777296965</v>
+        <v>1.097638046846919</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7777406781769971</v>
+        <v>0.7838618217662473</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>12.84115877493316</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.80261889901868</v>
+        <v>16.80261889901869</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.337055559890176</v>
@@ -749,7 +749,7 @@
         <v>0.751029020669417</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7243784358516728</v>
+        <v>0.7243784358516733</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.234165088755926</v>
+        <v>8.698063968581057</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.54602687236727</v>
+        <v>8.310380776931611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.682505221825863</v>
+        <v>6.95726182051091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.78273880430189</v>
+        <v>11.27894732138628</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6854173395005032</v>
+        <v>0.7295438032830286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3402597811722612</v>
+        <v>0.3577784614440405</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3915789272244625</v>
+        <v>0.3591000640435899</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3938134430543997</v>
+        <v>0.411106188915917</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.19563666885332</v>
+        <v>17.63478742177032</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.39496829501382</v>
+        <v>19.99540703288989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.85293114972258</v>
+        <v>18.11667952088247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.87629190417951</v>
+        <v>22.5893128738228</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.215332198752977</v>
+        <v>2.318380866914654</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.08370372479375</v>
+        <v>1.106839609817956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.260539882771712</v>
+        <v>1.233566938985073</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.092555964660207</v>
+        <v>1.124497946335667</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>13.39275561496054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.43871987939281</v>
+        <v>13.4387198793928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.653510216736126</v>
@@ -849,7 +849,7 @@
         <v>0.682383025705364</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4590837671567321</v>
+        <v>0.4590837671567318</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.22250782123346</v>
+        <v>12.07756084481339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.811455465366196</v>
+        <v>2.60130164079746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.999395259712623</v>
+        <v>7.227747527161917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.492608813273527</v>
+        <v>6.95841479764838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9040958953258661</v>
+        <v>0.8784926490037623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1267056897812382</v>
+        <v>0.09290492132581388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2470053988573877</v>
+        <v>0.3171623205690585</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2303132682954949</v>
+        <v>0.2101167695314407</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.25255384097074</v>
+        <v>24.2870423394484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.13026523273032</v>
+        <v>17.46229868592584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.82619498245554</v>
+        <v>20.56496090795143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.39319476481736</v>
+        <v>20.03230274347809</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.885701319288621</v>
+        <v>2.963540265168991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9381070874209141</v>
+        <v>0.9492779724741581</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.152002925130888</v>
+        <v>1.234360569361586</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7511034526541946</v>
+        <v>0.7778173147803057</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>17.52355077818746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14.08235462438232</v>
+        <v>14.08235462438233</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5036278341953758</v>
@@ -949,7 +949,7 @@
         <v>0.6184364289847013</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4792417824457424</v>
+        <v>0.479241782445743</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.818158241782071</v>
+        <v>2.110703905869352</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>14.37979389036754</v>
+        <v>14.34118505385537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10.26987995375011</v>
+        <v>9.695749754007723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.315616484078084</v>
+        <v>5.844568637743638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07447310520872048</v>
+        <v>0.1061815455575456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6487855029701048</v>
+        <v>0.6222615391287026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3184674359041249</v>
+        <v>0.3135591571882727</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1809319986508256</v>
+        <v>0.1716736010306822</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.80162020564546</v>
+        <v>12.8078771198633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.52329378569631</v>
+        <v>27.54250161852061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24.61373464214044</v>
+        <v>24.23936035838571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.43786351102441</v>
+        <v>21.65467065046569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.993332099481929</v>
+        <v>1.037210622732432</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.745262277453297</v>
+        <v>1.684480579185501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9843417716978332</v>
+        <v>1.025592099650167</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9015697648650005</v>
+        <v>0.8926572382029786</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>15.8100694680879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.01125786660888</v>
+        <v>16.01125786660887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7800474965408791</v>
@@ -1049,7 +1049,7 @@
         <v>1.138537385357728</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7381016171761489</v>
+        <v>0.7381016171761481</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.050762363324905</v>
+        <v>3.348113085191636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.78454831326076</v>
+        <v>18.83806983000467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.33248032776214</v>
+        <v>7.847682556521721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.107907502921609</v>
+        <v>9.241815566665739</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2216309265846615</v>
+        <v>0.1553979963330975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8834750169200661</v>
+        <v>0.8806690907219906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3715287892215838</v>
+        <v>0.4168151787416732</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3598613641656961</v>
+        <v>0.3661749433188781</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.48534831129546</v>
+        <v>18.629941020828</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>37.06657646621955</v>
+        <v>35.6182746152154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.28902307654234</v>
+        <v>23.69328615092063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.15216371849261</v>
+        <v>22.66877949209052</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.855313105288054</v>
+        <v>1.730542012949989</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.934085468858185</v>
+        <v>2.757806047889009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.159773989696713</v>
+        <v>2.257270253044607</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.241753427909909</v>
+        <v>1.277666354469171</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.6822937105690298</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5084983594470914</v>
+        <v>0.5084983594470913</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.391014229044006</v>
+        <v>5.052705311903828</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.2387458787111</v>
+        <v>10.79033699383383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.896322190616393</v>
+        <v>3.493678841891554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.051917855702182</v>
+        <v>7.944009949001224</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2610477718821606</v>
+        <v>0.294466110955272</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4820665991532981</v>
+        <v>0.4791091640949225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1971830565145036</v>
+        <v>0.164355723384414</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2557631394611454</v>
+        <v>0.2517783985483541</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.28759543008487</v>
+        <v>17.95032118709383</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>26.26263312721207</v>
+        <v>26.42730318658357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.75409838397973</v>
+        <v>17.21437933968347</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.99940989210763</v>
+        <v>21.23354574044781</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.677766503069082</v>
+        <v>1.729172489436018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.674476031765818</v>
+        <v>1.706694215518989</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.497168868846579</v>
+        <v>1.448263234298063</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8428455704841861</v>
+        <v>0.8572675039879254</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.662585186004175</v>
+        <v>2.224086749982862</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.6135353967894</v>
+        <v>10.9810457032677</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.387463045099471</v>
+        <v>2.859766158205018</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.129503786508639</v>
+        <v>9.020007601090672</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1667750912161026</v>
+        <v>0.1288256609366667</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.547657540456308</v>
+        <v>0.5669866246641232</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1252453417639675</v>
+        <v>0.1649513013267653</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3057611003534706</v>
+        <v>0.3072020306043177</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.23233855237889</v>
+        <v>10.99742575398321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.90508054527287</v>
+        <v>19.97664968609894</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.17382930964341</v>
+        <v>11.44558014376975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.75204191666022</v>
+        <v>18.83103202337675</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9131694203413682</v>
+        <v>0.9018713390311014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.355818329802466</v>
+        <v>1.405250953640766</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8541780080865476</v>
+        <v>0.8865837908705004</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7841411211076295</v>
+        <v>0.8062606731421943</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>13.09272785115101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17.03207582777559</v>
+        <v>17.0320758277756</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5355434327884645</v>
@@ -1349,7 +1349,7 @@
         <v>0.6515254674887749</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.284331518232689</v>
+        <v>1.28433151823269</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.161296559069013</v>
+        <v>5.364106651515808</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>10.41098367739129</v>
+        <v>11.01241998305716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8.609470635498175</v>
+        <v>8.307454905851152</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13.23877828522479</v>
+        <v>13.46665147516872</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2601158649036212</v>
+        <v>0.2601225254400011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6359398723922095</v>
+        <v>0.6700866782865337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3815701603464903</v>
+        <v>0.3795554494217493</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.8683814365695529</v>
+        <v>0.8990533812548508</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.78227477011547</v>
+        <v>13.53595252569317</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>18.74739216823645</v>
+        <v>19.24099834955287</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.57091842168828</v>
+        <v>17.67391070541052</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20.39479697479528</v>
+        <v>20.66436928591042</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8718557474229689</v>
+        <v>0.8409987428531963</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.522506075304837</v>
+        <v>1.580229027538757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9863307882564398</v>
+        <v>1.02230731385473</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.781588708655075</v>
+        <v>1.826724801422605</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.005556235671209</v>
+        <v>8.009719072734732</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>13.57966768770014</v>
+        <v>13.66315904377864</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.07474341605635</v>
+        <v>10.04853540987041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13.22115591481453</v>
+        <v>13.16799462970986</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5445189552257447</v>
+        <v>0.5378297878699331</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7093416892878137</v>
+        <v>0.7193392919707466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.504699996945122</v>
+        <v>0.4985751381516247</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.5269072575424633</v>
+        <v>0.524935991318081</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.7522077349228</v>
+        <v>11.78248119447574</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.72246745686036</v>
+        <v>17.83739031300613</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.33309633048165</v>
+        <v>14.29955702265546</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.07420361257656</v>
+        <v>17.3989879979748</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8935465162126015</v>
+        <v>0.9158673469311975</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.057166938989583</v>
+        <v>1.058952046339517</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8037676523082425</v>
+        <v>0.8021727258040633</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7586847899563234</v>
+        <v>0.7656725920231344</v>
       </c>
     </row>
     <row r="31">
